--- a/plantilla_pac_10.xlsx
+++ b/plantilla_pac_10.xlsx
@@ -351,7 +351,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -434,23 +434,15 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="14"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="13"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
@@ -835,7 +827,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="129">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1116,68 +1108,48 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1212,7 +1184,7 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1220,15 +1192,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1391,11 +1363,11 @@
   </sheetPr>
   <dimension ref="A1:AR1003"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="23:25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="2.57"/>
@@ -1409,10 +1381,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="6.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="5.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="6.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="17" style="0" width="3.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="17" style="0" width="3.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="3.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="5.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="6.57"/>
@@ -1423,7 +1395,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="11.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="33" style="0" width="3.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="33" style="0" width="3.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="6.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="5.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="5.01"/>
@@ -2141,7 +2113,7 @@
       <c r="AQ18" s="52"/>
       <c r="AR18" s="64"/>
     </row>
-    <row r="19" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" s="74" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="70"/>
       <c r="B19" s="70"/>
       <c r="C19" s="70"/>
@@ -2157,13 +2129,13 @@
       <c r="M19" s="70"/>
       <c r="N19" s="70"/>
       <c r="O19" s="70"/>
-      <c r="P19" s="73"/>
+      <c r="P19" s="70"/>
       <c r="Q19" s="70"/>
       <c r="R19" s="70"/>
       <c r="S19" s="70"/>
-      <c r="T19" s="73"/>
-      <c r="U19" s="73"/>
-      <c r="V19" s="73"/>
+      <c r="T19" s="70"/>
+      <c r="U19" s="70"/>
+      <c r="V19" s="70"/>
       <c r="W19" s="70"/>
       <c r="X19" s="70"/>
       <c r="Y19" s="70"/>
@@ -2184,11 +2156,11 @@
       <c r="AN19" s="70"/>
       <c r="AO19" s="70"/>
       <c r="AP19" s="70"/>
-      <c r="AQ19" s="73"/>
-      <c r="AR19" s="74"/>
-    </row>
-    <row r="20" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="75"/>
+      <c r="AQ19" s="70"/>
+      <c r="AR19" s="73"/>
+    </row>
+    <row r="20" s="74" customFormat="true" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="70"/>
       <c r="B20" s="70"/>
       <c r="C20" s="70"/>
       <c r="D20" s="70"/>
@@ -2203,13 +2175,13 @@
       <c r="M20" s="70"/>
       <c r="N20" s="70"/>
       <c r="O20" s="70"/>
-      <c r="P20" s="73"/>
+      <c r="P20" s="70"/>
       <c r="Q20" s="70"/>
       <c r="R20" s="70"/>
       <c r="S20" s="70"/>
-      <c r="T20" s="73"/>
-      <c r="U20" s="73"/>
-      <c r="V20" s="73"/>
+      <c r="T20" s="70"/>
+      <c r="U20" s="70"/>
+      <c r="V20" s="70"/>
       <c r="W20" s="70"/>
       <c r="X20" s="70"/>
       <c r="Y20" s="70"/>
@@ -2230,16 +2202,16 @@
       <c r="AN20" s="70"/>
       <c r="AO20" s="70"/>
       <c r="AP20" s="70"/>
-      <c r="AQ20" s="76"/>
-      <c r="AR20" s="74"/>
-    </row>
-    <row r="21" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AQ20" s="75"/>
+      <c r="AR20" s="73"/>
+    </row>
+    <row r="21" s="74" customFormat="true" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="70"/>
       <c r="B21" s="70"/>
       <c r="C21" s="70"/>
       <c r="D21" s="70"/>
       <c r="E21" s="70"/>
-      <c r="F21" s="77"/>
+      <c r="F21" s="76"/>
       <c r="G21" s="72"/>
       <c r="H21" s="70"/>
       <c r="I21" s="70"/>
@@ -2249,13 +2221,13 @@
       <c r="M21" s="70"/>
       <c r="N21" s="70"/>
       <c r="O21" s="70"/>
-      <c r="P21" s="73"/>
+      <c r="P21" s="70"/>
       <c r="Q21" s="70"/>
       <c r="R21" s="70"/>
       <c r="S21" s="70"/>
-      <c r="T21" s="73"/>
-      <c r="U21" s="73"/>
-      <c r="V21" s="73"/>
+      <c r="T21" s="70"/>
+      <c r="U21" s="70"/>
+      <c r="V21" s="70"/>
       <c r="W21" s="70"/>
       <c r="X21" s="70"/>
       <c r="Y21" s="70"/>
@@ -2277,10 +2249,10 @@
       <c r="AO21" s="70"/>
       <c r="AP21" s="70"/>
       <c r="AQ21" s="70"/>
-      <c r="AR21" s="78"/>
-    </row>
-    <row r="22" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="75"/>
+      <c r="AR21" s="73"/>
+    </row>
+    <row r="22" s="74" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="70"/>
       <c r="B22" s="70"/>
       <c r="C22" s="70"/>
       <c r="D22" s="70"/>
@@ -2295,13 +2267,13 @@
       <c r="M22" s="70"/>
       <c r="N22" s="70"/>
       <c r="O22" s="70"/>
-      <c r="P22" s="73"/>
+      <c r="P22" s="70"/>
       <c r="Q22" s="70"/>
       <c r="R22" s="70"/>
       <c r="S22" s="70"/>
-      <c r="T22" s="73"/>
-      <c r="U22" s="73"/>
-      <c r="V22" s="73"/>
+      <c r="T22" s="70"/>
+      <c r="U22" s="70"/>
+      <c r="V22" s="70"/>
       <c r="W22" s="70"/>
       <c r="X22" s="70"/>
       <c r="Y22" s="70"/>
@@ -2323,15 +2295,15 @@
       <c r="AO22" s="70"/>
       <c r="AP22" s="70"/>
       <c r="AQ22" s="70"/>
-      <c r="AR22" s="78"/>
-    </row>
-    <row r="23" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AR22" s="73"/>
+    </row>
+    <row r="23" s="74" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="70"/>
       <c r="B23" s="70"/>
       <c r="C23" s="70"/>
       <c r="D23" s="70"/>
       <c r="E23" s="70"/>
-      <c r="F23" s="77"/>
+      <c r="F23" s="76"/>
       <c r="G23" s="72"/>
       <c r="H23" s="70"/>
       <c r="I23" s="70"/>
@@ -2341,13 +2313,13 @@
       <c r="M23" s="70"/>
       <c r="N23" s="70"/>
       <c r="O23" s="70"/>
-      <c r="P23" s="73"/>
+      <c r="P23" s="70"/>
       <c r="Q23" s="70"/>
       <c r="R23" s="70"/>
       <c r="S23" s="70"/>
-      <c r="T23" s="73"/>
-      <c r="U23" s="73"/>
-      <c r="V23" s="73"/>
+      <c r="T23" s="70"/>
+      <c r="U23" s="70"/>
+      <c r="V23" s="70"/>
       <c r="W23" s="70"/>
       <c r="X23" s="70"/>
       <c r="Y23" s="70"/>
@@ -2369,35 +2341,35 @@
       <c r="AO23" s="70"/>
       <c r="AP23" s="70"/>
       <c r="AQ23" s="70"/>
-      <c r="AR23" s="78"/>
-    </row>
-    <row r="24" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="75"/>
-      <c r="B24" s="79"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="82"/>
+      <c r="AR23" s="73"/>
+    </row>
+    <row r="24" s="74" customFormat="true" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="70"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="80"/>
       <c r="H24" s="70"/>
       <c r="I24" s="70"/>
-      <c r="J24" s="80"/>
+      <c r="J24" s="78"/>
       <c r="K24" s="70"/>
       <c r="L24" s="70"/>
-      <c r="M24" s="80"/>
-      <c r="N24" s="80"/>
-      <c r="O24" s="80"/>
-      <c r="P24" s="73"/>
+      <c r="M24" s="78"/>
+      <c r="N24" s="78"/>
+      <c r="O24" s="78"/>
+      <c r="P24" s="70"/>
       <c r="Q24" s="70"/>
       <c r="R24" s="70"/>
       <c r="S24" s="70"/>
-      <c r="T24" s="73"/>
-      <c r="U24" s="73"/>
-      <c r="V24" s="73"/>
-      <c r="W24" s="79"/>
-      <c r="X24" s="79"/>
-      <c r="Y24" s="79"/>
-      <c r="Z24" s="79"/>
+      <c r="T24" s="70"/>
+      <c r="U24" s="70"/>
+      <c r="V24" s="70"/>
+      <c r="W24" s="77"/>
+      <c r="X24" s="77"/>
+      <c r="Y24" s="77"/>
+      <c r="Z24" s="77"/>
       <c r="AA24" s="70"/>
       <c r="AB24" s="70"/>
       <c r="AC24" s="70"/>
@@ -2411,39 +2383,39 @@
       <c r="AK24" s="70"/>
       <c r="AL24" s="70"/>
       <c r="AM24" s="70"/>
-      <c r="AN24" s="79"/>
-      <c r="AO24" s="83"/>
-      <c r="AP24" s="79"/>
-      <c r="AQ24" s="79"/>
-      <c r="AR24" s="78"/>
-    </row>
-    <row r="25" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="73"/>
-      <c r="B25" s="73"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="73"/>
-      <c r="N25" s="73"/>
-      <c r="O25" s="73"/>
-      <c r="P25" s="73"/>
-      <c r="Q25" s="73"/>
-      <c r="R25" s="73"/>
-      <c r="S25" s="73"/>
-      <c r="T25" s="73"/>
-      <c r="U25" s="73"/>
-      <c r="V25" s="73"/>
-      <c r="W25" s="73"/>
-      <c r="X25" s="73"/>
-      <c r="Y25" s="73"/>
-      <c r="Z25" s="73"/>
+      <c r="AN24" s="77"/>
+      <c r="AO24" s="77"/>
+      <c r="AP24" s="77"/>
+      <c r="AQ24" s="77"/>
+      <c r="AR24" s="73"/>
+    </row>
+    <row r="25" s="74" customFormat="true" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="70"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="70"/>
+      <c r="N25" s="70"/>
+      <c r="O25" s="70"/>
+      <c r="P25" s="70"/>
+      <c r="Q25" s="70"/>
+      <c r="R25" s="70"/>
+      <c r="S25" s="70"/>
+      <c r="T25" s="70"/>
+      <c r="U25" s="70"/>
+      <c r="V25" s="70"/>
+      <c r="W25" s="70"/>
+      <c r="X25" s="70"/>
+      <c r="Y25" s="70"/>
+      <c r="Z25" s="70"/>
       <c r="AA25" s="70"/>
       <c r="AB25" s="70"/>
       <c r="AC25" s="70"/>
@@ -2457,39 +2429,39 @@
       <c r="AK25" s="70"/>
       <c r="AL25" s="70"/>
       <c r="AM25" s="70"/>
-      <c r="AN25" s="73"/>
-      <c r="AO25" s="73"/>
-      <c r="AP25" s="73"/>
-      <c r="AQ25" s="73"/>
-      <c r="AR25" s="74"/>
-    </row>
-    <row r="26" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="73"/>
-      <c r="B26" s="73"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="73"/>
-      <c r="M26" s="73"/>
-      <c r="N26" s="73"/>
-      <c r="O26" s="73"/>
-      <c r="P26" s="73"/>
-      <c r="Q26" s="73"/>
-      <c r="R26" s="73"/>
-      <c r="S26" s="73"/>
-      <c r="T26" s="73"/>
-      <c r="U26" s="73"/>
-      <c r="V26" s="73"/>
-      <c r="W26" s="73"/>
-      <c r="X26" s="73"/>
-      <c r="Y26" s="73"/>
-      <c r="Z26" s="73"/>
+      <c r="AN25" s="70"/>
+      <c r="AO25" s="70"/>
+      <c r="AP25" s="70"/>
+      <c r="AQ25" s="70"/>
+      <c r="AR25" s="73"/>
+    </row>
+    <row r="26" s="74" customFormat="true" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="70"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="70"/>
+      <c r="N26" s="70"/>
+      <c r="O26" s="70"/>
+      <c r="P26" s="70"/>
+      <c r="Q26" s="70"/>
+      <c r="R26" s="70"/>
+      <c r="S26" s="70"/>
+      <c r="T26" s="70"/>
+      <c r="U26" s="70"/>
+      <c r="V26" s="70"/>
+      <c r="W26" s="70"/>
+      <c r="X26" s="70"/>
+      <c r="Y26" s="70"/>
+      <c r="Z26" s="70"/>
       <c r="AA26" s="70"/>
       <c r="AB26" s="70"/>
       <c r="AC26" s="70"/>
@@ -2503,39 +2475,39 @@
       <c r="AK26" s="70"/>
       <c r="AL26" s="70"/>
       <c r="AM26" s="70"/>
-      <c r="AN26" s="73"/>
-      <c r="AO26" s="73"/>
-      <c r="AP26" s="73"/>
-      <c r="AQ26" s="73"/>
-      <c r="AR26" s="74"/>
-    </row>
-    <row r="27" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="73"/>
-      <c r="B27" s="73"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="73"/>
-      <c r="K27" s="73"/>
-      <c r="L27" s="73"/>
-      <c r="M27" s="73"/>
-      <c r="N27" s="73"/>
-      <c r="O27" s="73"/>
-      <c r="P27" s="73"/>
-      <c r="Q27" s="73"/>
-      <c r="R27" s="73"/>
-      <c r="S27" s="73"/>
-      <c r="T27" s="73"/>
-      <c r="U27" s="73"/>
-      <c r="V27" s="73"/>
-      <c r="W27" s="73"/>
-      <c r="X27" s="73"/>
-      <c r="Y27" s="73"/>
-      <c r="Z27" s="73"/>
+      <c r="AN26" s="70"/>
+      <c r="AO26" s="70"/>
+      <c r="AP26" s="70"/>
+      <c r="AQ26" s="70"/>
+      <c r="AR26" s="73"/>
+    </row>
+    <row r="27" s="74" customFormat="true" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="70"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="70"/>
+      <c r="O27" s="70"/>
+      <c r="P27" s="70"/>
+      <c r="Q27" s="70"/>
+      <c r="R27" s="70"/>
+      <c r="S27" s="70"/>
+      <c r="T27" s="70"/>
+      <c r="U27" s="70"/>
+      <c r="V27" s="70"/>
+      <c r="W27" s="70"/>
+      <c r="X27" s="70"/>
+      <c r="Y27" s="70"/>
+      <c r="Z27" s="70"/>
       <c r="AA27" s="70"/>
       <c r="AB27" s="70"/>
       <c r="AC27" s="70"/>
@@ -2549,39 +2521,39 @@
       <c r="AK27" s="70"/>
       <c r="AL27" s="70"/>
       <c r="AM27" s="70"/>
-      <c r="AN27" s="73"/>
-      <c r="AO27" s="73"/>
-      <c r="AP27" s="73"/>
-      <c r="AQ27" s="73"/>
-      <c r="AR27" s="74"/>
-    </row>
-    <row r="28" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="73"/>
-      <c r="B28" s="73"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="73"/>
-      <c r="L28" s="73"/>
-      <c r="M28" s="73"/>
-      <c r="N28" s="73"/>
-      <c r="O28" s="73"/>
-      <c r="P28" s="73"/>
-      <c r="Q28" s="73"/>
-      <c r="R28" s="73"/>
-      <c r="S28" s="73"/>
-      <c r="T28" s="73"/>
-      <c r="U28" s="73"/>
-      <c r="V28" s="73"/>
-      <c r="W28" s="73"/>
-      <c r="X28" s="73"/>
-      <c r="Y28" s="73"/>
-      <c r="Z28" s="73"/>
+      <c r="AN27" s="70"/>
+      <c r="AO27" s="70"/>
+      <c r="AP27" s="70"/>
+      <c r="AQ27" s="70"/>
+      <c r="AR27" s="73"/>
+    </row>
+    <row r="28" s="74" customFormat="true" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="70"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="70"/>
+      <c r="N28" s="70"/>
+      <c r="O28" s="70"/>
+      <c r="P28" s="70"/>
+      <c r="Q28" s="70"/>
+      <c r="R28" s="70"/>
+      <c r="S28" s="70"/>
+      <c r="T28" s="70"/>
+      <c r="U28" s="70"/>
+      <c r="V28" s="70"/>
+      <c r="W28" s="70"/>
+      <c r="X28" s="70"/>
+      <c r="Y28" s="70"/>
+      <c r="Z28" s="70"/>
       <c r="AA28" s="70"/>
       <c r="AB28" s="70"/>
       <c r="AC28" s="70"/>
@@ -2595,124 +2567,124 @@
       <c r="AK28" s="70"/>
       <c r="AL28" s="70"/>
       <c r="AM28" s="70"/>
-      <c r="AN28" s="73"/>
-      <c r="AO28" s="73"/>
-      <c r="AP28" s="73"/>
-      <c r="AQ28" s="73"/>
-      <c r="AR28" s="74"/>
+      <c r="AN28" s="70"/>
+      <c r="AO28" s="70"/>
+      <c r="AP28" s="70"/>
+      <c r="AQ28" s="70"/>
+      <c r="AR28" s="73"/>
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="86" t="n">
+      <c r="A29" s="81" t="n">
         <v>1</v>
       </c>
-      <c r="B29" s="87" t="n">
+      <c r="B29" s="82" t="n">
         <v>2</v>
       </c>
-      <c r="C29" s="87" t="n">
+      <c r="C29" s="82" t="n">
         <v>3</v>
       </c>
-      <c r="D29" s="88" t="n">
+      <c r="D29" s="83" t="n">
         <v>4</v>
       </c>
-      <c r="E29" s="89" t="n">
+      <c r="E29" s="84" t="n">
         <v>5</v>
       </c>
-      <c r="F29" s="88" t="n">
+      <c r="F29" s="83" t="n">
         <v>6</v>
       </c>
-      <c r="G29" s="90" t="n">
+      <c r="G29" s="85" t="n">
         <v>7</v>
       </c>
-      <c r="H29" s="88" t="n">
+      <c r="H29" s="83" t="n">
         <v>8</v>
       </c>
-      <c r="I29" s="88" t="n">
+      <c r="I29" s="83" t="n">
         <v>9</v>
       </c>
-      <c r="J29" s="88" t="n">
+      <c r="J29" s="83" t="n">
         <v>10</v>
       </c>
-      <c r="K29" s="88" t="n">
+      <c r="K29" s="83" t="n">
         <v>11</v>
       </c>
-      <c r="L29" s="88" t="n">
+      <c r="L29" s="83" t="n">
         <v>12</v>
       </c>
-      <c r="M29" s="88" t="n">
+      <c r="M29" s="83" t="n">
         <v>13</v>
       </c>
-      <c r="N29" s="88" t="n">
+      <c r="N29" s="83" t="n">
         <v>14</v>
       </c>
-      <c r="O29" s="91" t="n">
+      <c r="O29" s="86" t="n">
         <v>15</v>
       </c>
-      <c r="P29" s="88" t="n">
+      <c r="P29" s="83" t="n">
         <v>16</v>
       </c>
-      <c r="Q29" s="88" t="n">
+      <c r="Q29" s="83" t="n">
         <v>17</v>
       </c>
-      <c r="R29" s="88"/>
-      <c r="S29" s="88"/>
-      <c r="T29" s="87" t="n">
+      <c r="R29" s="83"/>
+      <c r="S29" s="83"/>
+      <c r="T29" s="82" t="n">
         <v>18</v>
       </c>
-      <c r="U29" s="87"/>
-      <c r="V29" s="87"/>
-      <c r="W29" s="88" t="n">
+      <c r="U29" s="82"/>
+      <c r="V29" s="82"/>
+      <c r="W29" s="83" t="n">
         <v>19</v>
       </c>
-      <c r="X29" s="88" t="n">
+      <c r="X29" s="83" t="n">
         <v>20</v>
       </c>
-      <c r="Y29" s="88" t="n">
+      <c r="Y29" s="83" t="n">
         <v>21</v>
       </c>
-      <c r="Z29" s="88" t="n">
+      <c r="Z29" s="83" t="n">
         <v>22</v>
       </c>
-      <c r="AA29" s="88" t="n">
+      <c r="AA29" s="83" t="n">
         <v>23</v>
       </c>
-      <c r="AB29" s="88" t="n">
+      <c r="AB29" s="83" t="n">
         <v>24</v>
       </c>
-      <c r="AC29" s="88" t="n">
+      <c r="AC29" s="83" t="n">
         <v>25</v>
       </c>
-      <c r="AD29" s="88" t="n">
+      <c r="AD29" s="83" t="n">
         <v>26</v>
       </c>
-      <c r="AE29" s="91" t="n">
+      <c r="AE29" s="86" t="n">
         <v>27</v>
       </c>
-      <c r="AF29" s="88" t="n">
+      <c r="AF29" s="83" t="n">
         <v>28</v>
       </c>
-      <c r="AG29" s="87" t="n">
+      <c r="AG29" s="82" t="n">
         <v>29</v>
       </c>
-      <c r="AH29" s="87"/>
-      <c r="AI29" s="87"/>
-      <c r="AJ29" s="88" t="n">
+      <c r="AH29" s="82"/>
+      <c r="AI29" s="82"/>
+      <c r="AJ29" s="83" t="n">
         <v>30</v>
       </c>
-      <c r="AK29" s="88"/>
-      <c r="AL29" s="88"/>
-      <c r="AM29" s="88" t="n">
+      <c r="AK29" s="83"/>
+      <c r="AL29" s="83"/>
+      <c r="AM29" s="83" t="n">
         <v>31</v>
       </c>
-      <c r="AN29" s="88" t="n">
+      <c r="AN29" s="83" t="n">
         <v>32</v>
       </c>
-      <c r="AO29" s="88" t="n">
+      <c r="AO29" s="83" t="n">
         <v>33</v>
       </c>
-      <c r="AP29" s="88" t="n">
+      <c r="AP29" s="83" t="n">
         <v>34</v>
       </c>
-      <c r="AQ29" s="92" t="n">
+      <c r="AQ29" s="87" t="n">
         <v>35</v>
       </c>
     </row>
@@ -4757,12 +4729,12 @@
   <dimension ref="A1:AR1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="23:25 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="2.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.01"/>
@@ -4770,16 +4742,16 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="25.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="3.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="3.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="6.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="6.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="3.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="19" style="0" width="3.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="19" style="0" width="3.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="6.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="6.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="6.01"/>
@@ -4791,7 +4763,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="8.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="2.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="35" style="0" width="3.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="35" style="0" width="3.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="7.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="8.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="5.29"/>
@@ -4852,7 +4824,7 @@
       <c r="AO2" s="51"/>
       <c r="AP2" s="51"/>
       <c r="AQ2" s="51"/>
-      <c r="AR2" s="93" t="s">
+      <c r="AR2" s="88" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4960,7 +4932,7 @@
         <v>45</v>
       </c>
       <c r="AQ3" s="63"/>
-      <c r="AR3" s="93"/>
+      <c r="AR3" s="88"/>
     </row>
     <row r="4" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="48"/>
@@ -5040,223 +5012,223 @@
       <c r="AQ4" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="AR4" s="93"/>
+      <c r="AR4" s="88"/>
     </row>
     <row r="5" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="94"/>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
-      <c r="T5" s="94"/>
-      <c r="U5" s="94"/>
-      <c r="V5" s="94"/>
-      <c r="W5" s="95"/>
-      <c r="X5" s="95"/>
-      <c r="Y5" s="95"/>
-      <c r="Z5" s="95"/>
-      <c r="AA5" s="95"/>
-      <c r="AB5" s="95"/>
-      <c r="AC5" s="98"/>
-      <c r="AD5" s="98"/>
-      <c r="AE5" s="98"/>
-      <c r="AF5" s="98"/>
-      <c r="AG5" s="98"/>
-      <c r="AH5" s="98"/>
-      <c r="AI5" s="98"/>
-      <c r="AJ5" s="98"/>
-      <c r="AK5" s="98"/>
-      <c r="AL5" s="98"/>
-      <c r="AM5" s="98"/>
-      <c r="AN5" s="98"/>
-      <c r="AO5" s="98"/>
-      <c r="AP5" s="98"/>
-      <c r="AQ5" s="95"/>
-      <c r="AR5" s="99"/>
+      <c r="A5" s="89"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="89"/>
+      <c r="T5" s="89"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
+      <c r="W5" s="90"/>
+      <c r="X5" s="90"/>
+      <c r="Y5" s="90"/>
+      <c r="Z5" s="90"/>
+      <c r="AA5" s="90"/>
+      <c r="AB5" s="90"/>
+      <c r="AC5" s="93"/>
+      <c r="AD5" s="93"/>
+      <c r="AE5" s="93"/>
+      <c r="AF5" s="93"/>
+      <c r="AG5" s="93"/>
+      <c r="AH5" s="93"/>
+      <c r="AI5" s="93"/>
+      <c r="AJ5" s="93"/>
+      <c r="AK5" s="93"/>
+      <c r="AL5" s="93"/>
+      <c r="AM5" s="93"/>
+      <c r="AN5" s="93"/>
+      <c r="AO5" s="93"/>
+      <c r="AP5" s="93"/>
+      <c r="AQ5" s="90"/>
+      <c r="AR5" s="94"/>
     </row>
     <row r="6" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="94"/>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="94"/>
-      <c r="S6" s="94"/>
-      <c r="T6" s="94"/>
-      <c r="U6" s="94"/>
-      <c r="V6" s="94"/>
-      <c r="W6" s="95"/>
-      <c r="X6" s="95"/>
-      <c r="Y6" s="95"/>
-      <c r="Z6" s="95"/>
-      <c r="AA6" s="95"/>
-      <c r="AB6" s="95"/>
-      <c r="AC6" s="98"/>
-      <c r="AD6" s="98"/>
-      <c r="AE6" s="98"/>
-      <c r="AF6" s="98"/>
-      <c r="AG6" s="98"/>
-      <c r="AH6" s="98"/>
-      <c r="AI6" s="98"/>
-      <c r="AJ6" s="98"/>
-      <c r="AK6" s="98"/>
-      <c r="AL6" s="98"/>
-      <c r="AM6" s="98"/>
-      <c r="AN6" s="98"/>
-      <c r="AO6" s="98"/>
-      <c r="AP6" s="98"/>
-      <c r="AQ6" s="95"/>
-      <c r="AR6" s="99"/>
+      <c r="A6" s="89"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="89"/>
+      <c r="O6" s="89"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="89"/>
+      <c r="R6" s="89"/>
+      <c r="S6" s="89"/>
+      <c r="T6" s="89"/>
+      <c r="U6" s="89"/>
+      <c r="V6" s="89"/>
+      <c r="W6" s="90"/>
+      <c r="X6" s="90"/>
+      <c r="Y6" s="90"/>
+      <c r="Z6" s="90"/>
+      <c r="AA6" s="90"/>
+      <c r="AB6" s="90"/>
+      <c r="AC6" s="93"/>
+      <c r="AD6" s="93"/>
+      <c r="AE6" s="93"/>
+      <c r="AF6" s="93"/>
+      <c r="AG6" s="93"/>
+      <c r="AH6" s="93"/>
+      <c r="AI6" s="93"/>
+      <c r="AJ6" s="93"/>
+      <c r="AK6" s="93"/>
+      <c r="AL6" s="93"/>
+      <c r="AM6" s="93"/>
+      <c r="AN6" s="93"/>
+      <c r="AO6" s="93"/>
+      <c r="AP6" s="93"/>
+      <c r="AQ6" s="90"/>
+      <c r="AR6" s="94"/>
     </row>
     <row r="7" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="100"/>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
-      <c r="N7" s="100"/>
-      <c r="O7" s="100"/>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="94"/>
-      <c r="R7" s="94"/>
-      <c r="S7" s="94"/>
-      <c r="T7" s="94"/>
-      <c r="U7" s="94"/>
-      <c r="V7" s="94"/>
-      <c r="W7" s="95"/>
-      <c r="X7" s="95"/>
-      <c r="Y7" s="95"/>
-      <c r="Z7" s="95"/>
-      <c r="AA7" s="95"/>
-      <c r="AB7" s="95"/>
-      <c r="AC7" s="98"/>
-      <c r="AD7" s="98"/>
-      <c r="AE7" s="98"/>
-      <c r="AF7" s="98"/>
-      <c r="AG7" s="98"/>
-      <c r="AH7" s="98"/>
-      <c r="AI7" s="98"/>
-      <c r="AJ7" s="98"/>
-      <c r="AK7" s="98"/>
-      <c r="AL7" s="98"/>
-      <c r="AM7" s="98"/>
-      <c r="AN7" s="98"/>
-      <c r="AO7" s="98"/>
-      <c r="AP7" s="98"/>
-      <c r="AQ7" s="95"/>
-      <c r="AR7" s="99"/>
+      <c r="A7" s="95"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="95"/>
+      <c r="N7" s="95"/>
+      <c r="O7" s="95"/>
+      <c r="P7" s="89"/>
+      <c r="Q7" s="89"/>
+      <c r="R7" s="89"/>
+      <c r="S7" s="89"/>
+      <c r="T7" s="89"/>
+      <c r="U7" s="89"/>
+      <c r="V7" s="89"/>
+      <c r="W7" s="90"/>
+      <c r="X7" s="90"/>
+      <c r="Y7" s="90"/>
+      <c r="Z7" s="90"/>
+      <c r="AA7" s="90"/>
+      <c r="AB7" s="90"/>
+      <c r="AC7" s="93"/>
+      <c r="AD7" s="93"/>
+      <c r="AE7" s="93"/>
+      <c r="AF7" s="93"/>
+      <c r="AG7" s="93"/>
+      <c r="AH7" s="93"/>
+      <c r="AI7" s="93"/>
+      <c r="AJ7" s="93"/>
+      <c r="AK7" s="93"/>
+      <c r="AL7" s="93"/>
+      <c r="AM7" s="93"/>
+      <c r="AN7" s="93"/>
+      <c r="AO7" s="93"/>
+      <c r="AP7" s="93"/>
+      <c r="AQ7" s="90"/>
+      <c r="AR7" s="94"/>
     </row>
     <row r="8" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="100"/>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="100"/>
-      <c r="P8" s="94"/>
-      <c r="Q8" s="94"/>
-      <c r="R8" s="94"/>
-      <c r="S8" s="94"/>
-      <c r="T8" s="94"/>
-      <c r="U8" s="94"/>
-      <c r="V8" s="94"/>
-      <c r="W8" s="95"/>
-      <c r="X8" s="95"/>
-      <c r="Y8" s="95"/>
-      <c r="Z8" s="95"/>
-      <c r="AA8" s="95"/>
-      <c r="AB8" s="95"/>
-      <c r="AC8" s="98"/>
-      <c r="AD8" s="98"/>
-      <c r="AE8" s="98"/>
-      <c r="AF8" s="98"/>
-      <c r="AG8" s="98"/>
-      <c r="AH8" s="98"/>
-      <c r="AI8" s="98"/>
-      <c r="AJ8" s="98"/>
-      <c r="AK8" s="98"/>
-      <c r="AL8" s="98"/>
-      <c r="AM8" s="98"/>
-      <c r="AN8" s="98"/>
-      <c r="AO8" s="98"/>
-      <c r="AP8" s="98"/>
-      <c r="AQ8" s="95"/>
-      <c r="AR8" s="99"/>
+      <c r="A8" s="95"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="89"/>
+      <c r="S8" s="89"/>
+      <c r="T8" s="89"/>
+      <c r="U8" s="89"/>
+      <c r="V8" s="89"/>
+      <c r="W8" s="90"/>
+      <c r="X8" s="90"/>
+      <c r="Y8" s="90"/>
+      <c r="Z8" s="90"/>
+      <c r="AA8" s="90"/>
+      <c r="AB8" s="90"/>
+      <c r="AC8" s="93"/>
+      <c r="AD8" s="93"/>
+      <c r="AE8" s="93"/>
+      <c r="AF8" s="93"/>
+      <c r="AG8" s="93"/>
+      <c r="AH8" s="93"/>
+      <c r="AI8" s="93"/>
+      <c r="AJ8" s="93"/>
+      <c r="AK8" s="93"/>
+      <c r="AL8" s="93"/>
+      <c r="AM8" s="93"/>
+      <c r="AN8" s="93"/>
+      <c r="AO8" s="93"/>
+      <c r="AP8" s="93"/>
+      <c r="AQ8" s="90"/>
+      <c r="AR8" s="94"/>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="104"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="104"/>
-      <c r="Q9" s="104"/>
-      <c r="R9" s="104"/>
-      <c r="S9" s="104"/>
-      <c r="T9" s="104"/>
-      <c r="U9" s="104"/>
-      <c r="V9" s="104"/>
-      <c r="W9" s="104"/>
-      <c r="X9" s="104"/>
-      <c r="Y9" s="104"/>
-      <c r="Z9" s="104"/>
-      <c r="AA9" s="104"/>
-      <c r="AB9" s="105"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="99"/>
+      <c r="Q9" s="99"/>
+      <c r="R9" s="99"/>
+      <c r="S9" s="99"/>
+      <c r="T9" s="99"/>
+      <c r="U9" s="99"/>
+      <c r="V9" s="99"/>
+      <c r="W9" s="99"/>
+      <c r="X9" s="99"/>
+      <c r="Y9" s="99"/>
+      <c r="Z9" s="99"/>
+      <c r="AA9" s="99"/>
+      <c r="AB9" s="100"/>
       <c r="AC9" s="38"/>
       <c r="AD9" s="7"/>
       <c r="AE9" s="7"/>
@@ -5275,40 +5247,40 @@
       <c r="AR9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="106" t="s">
+      <c r="A10" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="106"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="107" t="s">
+      <c r="B10" s="101"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="107"/>
-      <c r="K10" s="107"/>
-      <c r="L10" s="107"/>
-      <c r="M10" s="107"/>
-      <c r="N10" s="107"/>
-      <c r="O10" s="107"/>
-      <c r="P10" s="107"/>
-      <c r="Q10" s="107"/>
-      <c r="R10" s="108" t="s">
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="102"/>
+      <c r="R10" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="S10" s="108"/>
-      <c r="T10" s="108"/>
-      <c r="U10" s="108"/>
-      <c r="V10" s="108"/>
-      <c r="W10" s="108"/>
-      <c r="X10" s="108"/>
-      <c r="Y10" s="108"/>
-      <c r="Z10" s="108"/>
-      <c r="AA10" s="108"/>
-      <c r="AB10" s="108"/>
+      <c r="S10" s="103"/>
+      <c r="T10" s="103"/>
+      <c r="U10" s="103"/>
+      <c r="V10" s="103"/>
+      <c r="W10" s="103"/>
+      <c r="X10" s="103"/>
+      <c r="Y10" s="103"/>
+      <c r="Z10" s="103"/>
+      <c r="AA10" s="103"/>
+      <c r="AB10" s="103"/>
       <c r="AC10" s="38"/>
       <c r="AD10" s="7"/>
       <c r="AE10" s="7"/>
@@ -5327,18 +5299,18 @@
       <c r="AR10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="104" t="s">
         <v>58</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="111" t="s">
+      <c r="E11" s="105"/>
+      <c r="F11" s="106" t="s">
         <v>59</v>
       </c>
       <c r="G11" s="35"/>
-      <c r="H11" s="112" t="s">
+      <c r="H11" s="107" t="s">
         <v>60</v>
       </c>
       <c r="I11" s="35"/>
@@ -5349,8 +5321,8 @@
       <c r="N11" s="35"/>
       <c r="O11" s="35"/>
       <c r="P11" s="35"/>
-      <c r="Q11" s="110"/>
-      <c r="R11" s="112" t="s">
+      <c r="Q11" s="105"/>
+      <c r="R11" s="107" t="s">
         <v>61</v>
       </c>
       <c r="S11" s="35"/>
@@ -5362,15 +5334,15 @@
       <c r="Y11" s="35"/>
       <c r="Z11" s="35"/>
       <c r="AA11" s="35"/>
-      <c r="AB11" s="113"/>
-      <c r="AC11" s="114" t="s">
+      <c r="AB11" s="108"/>
+      <c r="AC11" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="AD11" s="115"/>
-      <c r="AE11" s="115"/>
-      <c r="AF11" s="115"/>
-      <c r="AG11" s="115"/>
-      <c r="AH11" s="115"/>
+      <c r="AD11" s="110"/>
+      <c r="AE11" s="110"/>
+      <c r="AF11" s="110"/>
+      <c r="AG11" s="110"/>
+      <c r="AH11" s="110"/>
       <c r="AI11" s="7"/>
       <c r="AJ11" s="7"/>
       <c r="AK11" s="7"/>
@@ -5383,14 +5355,14 @@
       <c r="AR11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="109" t="s">
+      <c r="A12" s="104" t="s">
         <v>63</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="117" t="s">
+      <c r="E12" s="111"/>
+      <c r="F12" s="112" t="s">
         <v>64</v>
       </c>
       <c r="G12" s="7"/>
@@ -5405,7 +5377,7 @@
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
-      <c r="Q12" s="116"/>
+      <c r="Q12" s="111"/>
       <c r="R12" s="1" t="s">
         <v>66</v>
       </c>
@@ -5419,12 +5391,12 @@
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
       <c r="AB12" s="39"/>
-      <c r="AC12" s="114"/>
-      <c r="AD12" s="115"/>
-      <c r="AE12" s="115"/>
-      <c r="AF12" s="115"/>
-      <c r="AG12" s="115"/>
-      <c r="AH12" s="115"/>
+      <c r="AC12" s="109"/>
+      <c r="AD12" s="110"/>
+      <c r="AE12" s="110"/>
+      <c r="AF12" s="110"/>
+      <c r="AG12" s="110"/>
+      <c r="AH12" s="110"/>
       <c r="AI12" s="7"/>
       <c r="AJ12" s="7"/>
       <c r="AK12" s="7"/>
@@ -5437,14 +5409,14 @@
       <c r="AR12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="109" t="s">
+      <c r="A13" s="104" t="s">
         <v>67</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="117" t="s">
+      <c r="E13" s="111"/>
+      <c r="F13" s="112" t="s">
         <v>68</v>
       </c>
       <c r="G13" s="7"/>
@@ -5459,7 +5431,7 @@
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
-      <c r="Q13" s="116"/>
+      <c r="Q13" s="111"/>
       <c r="R13" s="1" t="s">
         <v>70</v>
       </c>
@@ -5473,12 +5445,12 @@
       <c r="Z13" s="7"/>
       <c r="AA13" s="7"/>
       <c r="AB13" s="39"/>
-      <c r="AC13" s="114"/>
-      <c r="AD13" s="115"/>
-      <c r="AE13" s="115"/>
-      <c r="AF13" s="115"/>
-      <c r="AG13" s="115"/>
-      <c r="AH13" s="115"/>
+      <c r="AC13" s="109"/>
+      <c r="AD13" s="110"/>
+      <c r="AE13" s="110"/>
+      <c r="AF13" s="110"/>
+      <c r="AG13" s="110"/>
+      <c r="AH13" s="110"/>
       <c r="AI13" s="7"/>
       <c r="AJ13" s="7"/>
       <c r="AK13" s="7"/>
@@ -5491,14 +5463,14 @@
       <c r="AR13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="109" t="s">
+      <c r="A14" s="104" t="s">
         <v>71</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="116"/>
-      <c r="F14" s="117" t="s">
+      <c r="E14" s="111"/>
+      <c r="F14" s="112" t="s">
         <v>72</v>
       </c>
       <c r="G14" s="7"/>
@@ -5513,7 +5485,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
-      <c r="Q14" s="116"/>
+      <c r="Q14" s="111"/>
       <c r="R14" s="1" t="s">
         <v>74</v>
       </c>
@@ -5527,34 +5499,34 @@
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
       <c r="AB14" s="39"/>
-      <c r="AC14" s="118" t="s">
+      <c r="AC14" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="AD14" s="118"/>
-      <c r="AE14" s="118"/>
-      <c r="AF14" s="118"/>
-      <c r="AG14" s="118"/>
-      <c r="AH14" s="118"/>
-      <c r="AI14" s="118"/>
-      <c r="AJ14" s="118"/>
-      <c r="AK14" s="118"/>
-      <c r="AL14" s="118"/>
-      <c r="AM14" s="118"/>
-      <c r="AN14" s="118"/>
-      <c r="AO14" s="118"/>
-      <c r="AP14" s="118"/>
-      <c r="AQ14" s="118"/>
-      <c r="AR14" s="118"/>
+      <c r="AD14" s="113"/>
+      <c r="AE14" s="113"/>
+      <c r="AF14" s="113"/>
+      <c r="AG14" s="113"/>
+      <c r="AH14" s="113"/>
+      <c r="AI14" s="113"/>
+      <c r="AJ14" s="113"/>
+      <c r="AK14" s="113"/>
+      <c r="AL14" s="113"/>
+      <c r="AM14" s="113"/>
+      <c r="AN14" s="113"/>
+      <c r="AO14" s="113"/>
+      <c r="AP14" s="113"/>
+      <c r="AQ14" s="113"/>
+      <c r="AR14" s="113"/>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="109" t="s">
+      <c r="A15" s="104" t="s">
         <v>76</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="117" t="s">
+      <c r="E15" s="111"/>
+      <c r="F15" s="112" t="s">
         <v>77</v>
       </c>
       <c r="G15" s="7"/>
@@ -5569,7 +5541,7 @@
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
-      <c r="Q15" s="116"/>
+      <c r="Q15" s="111"/>
       <c r="R15" s="1" t="s">
         <v>79</v>
       </c>
@@ -5583,28 +5555,28 @@
       <c r="Z15" s="7"/>
       <c r="AA15" s="7"/>
       <c r="AB15" s="39"/>
-      <c r="AC15" s="119" t="s">
+      <c r="AC15" s="114" t="s">
         <v>80</v>
       </c>
-      <c r="AD15" s="119"/>
-      <c r="AE15" s="119"/>
-      <c r="AF15" s="119"/>
-      <c r="AG15" s="119"/>
-      <c r="AH15" s="119"/>
-      <c r="AI15" s="119"/>
-      <c r="AJ15" s="119"/>
-      <c r="AK15" s="119"/>
-      <c r="AL15" s="119"/>
-      <c r="AM15" s="119"/>
-      <c r="AN15" s="119"/>
-      <c r="AO15" s="119"/>
-      <c r="AP15" s="119"/>
-      <c r="AQ15" s="119"/>
-      <c r="AR15" s="119"/>
+      <c r="AD15" s="114"/>
+      <c r="AE15" s="114"/>
+      <c r="AF15" s="114"/>
+      <c r="AG15" s="114"/>
+      <c r="AH15" s="114"/>
+      <c r="AI15" s="114"/>
+      <c r="AJ15" s="114"/>
+      <c r="AK15" s="114"/>
+      <c r="AL15" s="114"/>
+      <c r="AM15" s="114"/>
+      <c r="AN15" s="114"/>
+      <c r="AO15" s="114"/>
+      <c r="AP15" s="114"/>
+      <c r="AQ15" s="114"/>
+      <c r="AR15" s="114"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E16" s="116"/>
-      <c r="F16" s="117" t="s">
+      <c r="E16" s="111"/>
+      <c r="F16" s="112" t="s">
         <v>81</v>
       </c>
       <c r="G16" s="7"/>
@@ -5619,7 +5591,7 @@
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
-      <c r="Q16" s="116"/>
+      <c r="Q16" s="111"/>
       <c r="R16" s="1" t="s">
         <v>83</v>
       </c>
@@ -5632,26 +5604,26 @@
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
-      <c r="AB16" s="120"/>
-      <c r="AC16" s="121" t="s">
+      <c r="AB16" s="115"/>
+      <c r="AC16" s="116" t="s">
         <v>84</v>
       </c>
-      <c r="AD16" s="121"/>
-      <c r="AE16" s="121"/>
-      <c r="AF16" s="121"/>
+      <c r="AD16" s="116"/>
+      <c r="AE16" s="116"/>
+      <c r="AF16" s="116"/>
       <c r="AG16" s="35"/>
       <c r="AH16" s="35"/>
       <c r="AI16" s="35"/>
       <c r="AJ16" s="35"/>
-      <c r="AK16" s="110"/>
-      <c r="AL16" s="122" t="s">
+      <c r="AK16" s="105"/>
+      <c r="AL16" s="117" t="s">
         <v>85</v>
       </c>
-      <c r="AM16" s="122"/>
-      <c r="AN16" s="122"/>
-      <c r="AO16" s="122"/>
-      <c r="AP16" s="122"/>
-      <c r="AQ16" s="122"/>
+      <c r="AM16" s="117"/>
+      <c r="AN16" s="117"/>
+      <c r="AO16" s="117"/>
+      <c r="AP16" s="117"/>
+      <c r="AQ16" s="117"/>
       <c r="AR16" s="35"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5659,8 +5631,8 @@
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="116"/>
-      <c r="F17" s="117" t="s">
+      <c r="E17" s="111"/>
+      <c r="F17" s="112" t="s">
         <v>86</v>
       </c>
       <c r="G17" s="7"/>
@@ -5675,7 +5647,7 @@
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
-      <c r="Q17" s="116"/>
+      <c r="Q17" s="111"/>
       <c r="R17" s="1" t="s">
         <v>88</v>
       </c>
@@ -5689,34 +5661,34 @@
       <c r="Z17" s="7"/>
       <c r="AA17" s="7"/>
       <c r="AB17" s="39"/>
-      <c r="AC17" s="123" t="s">
+      <c r="AC17" s="118" t="s">
         <v>89</v>
       </c>
-      <c r="AD17" s="123"/>
-      <c r="AE17" s="123"/>
-      <c r="AF17" s="123"/>
+      <c r="AD17" s="118"/>
+      <c r="AE17" s="118"/>
+      <c r="AF17" s="118"/>
       <c r="AG17" s="17"/>
       <c r="AH17" s="17"/>
       <c r="AI17" s="17"/>
       <c r="AJ17" s="7"/>
-      <c r="AK17" s="116"/>
-      <c r="AL17" s="124" t="s">
+      <c r="AK17" s="111"/>
+      <c r="AL17" s="119" t="s">
         <v>90</v>
       </c>
-      <c r="AM17" s="124"/>
-      <c r="AN17" s="124"/>
-      <c r="AO17" s="124"/>
-      <c r="AP17" s="124"/>
-      <c r="AQ17" s="124"/>
+      <c r="AM17" s="119"/>
+      <c r="AN17" s="119"/>
+      <c r="AO17" s="119"/>
+      <c r="AP17" s="119"/>
+      <c r="AQ17" s="119"/>
       <c r="AR17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="2.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="109"/>
+      <c r="A18" s="104"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="117"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="112"/>
       <c r="G18" s="7"/>
       <c r="H18" s="1"/>
       <c r="I18" s="7"/>
@@ -5727,7 +5699,7 @@
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
-      <c r="Q18" s="116"/>
+      <c r="Q18" s="111"/>
       <c r="R18" s="1"/>
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
@@ -5739,30 +5711,30 @@
       <c r="Z18" s="7"/>
       <c r="AA18" s="7"/>
       <c r="AB18" s="39"/>
-      <c r="AC18" s="125"/>
+      <c r="AC18" s="120"/>
       <c r="AD18" s="17"/>
       <c r="AE18" s="17"/>
-      <c r="AF18" s="126"/>
+      <c r="AF18" s="121"/>
       <c r="AG18" s="17"/>
       <c r="AH18" s="17"/>
       <c r="AI18" s="17"/>
       <c r="AJ18" s="7"/>
-      <c r="AK18" s="116"/>
-      <c r="AL18" s="127"/>
+      <c r="AK18" s="111"/>
+      <c r="AL18" s="122"/>
       <c r="AM18" s="17"/>
       <c r="AN18" s="17"/>
       <c r="AO18" s="17"/>
       <c r="AP18" s="17"/>
-      <c r="AQ18" s="126"/>
+      <c r="AQ18" s="121"/>
       <c r="AR18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="109"/>
+      <c r="A19" s="104"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="117" t="s">
+      <c r="E19" s="111"/>
+      <c r="F19" s="112" t="s">
         <v>91</v>
       </c>
       <c r="G19" s="7"/>
@@ -5777,7 +5749,7 @@
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
-      <c r="Q19" s="116"/>
+      <c r="Q19" s="111"/>
       <c r="R19" s="1" t="s">
         <v>93</v>
       </c>
@@ -5791,21 +5763,21 @@
       <c r="Z19" s="7"/>
       <c r="AA19" s="7"/>
       <c r="AB19" s="39"/>
-      <c r="AC19" s="128"/>
-      <c r="AD19" s="128"/>
-      <c r="AE19" s="128"/>
-      <c r="AF19" s="128"/>
-      <c r="AG19" s="129"/>
-      <c r="AH19" s="129"/>
-      <c r="AI19" s="129"/>
+      <c r="AC19" s="123"/>
+      <c r="AD19" s="123"/>
+      <c r="AE19" s="123"/>
+      <c r="AF19" s="123"/>
+      <c r="AG19" s="124"/>
+      <c r="AH19" s="124"/>
+      <c r="AI19" s="124"/>
       <c r="AJ19" s="35"/>
-      <c r="AK19" s="110"/>
-      <c r="AL19" s="130"/>
-      <c r="AM19" s="130"/>
-      <c r="AN19" s="130"/>
-      <c r="AO19" s="130"/>
-      <c r="AP19" s="130"/>
-      <c r="AQ19" s="130"/>
+      <c r="AK19" s="105"/>
+      <c r="AL19" s="125"/>
+      <c r="AM19" s="125"/>
+      <c r="AN19" s="125"/>
+      <c r="AO19" s="125"/>
+      <c r="AP19" s="125"/>
+      <c r="AQ19" s="125"/>
       <c r="AR19" s="35"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5813,8 +5785,8 @@
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="117" t="s">
+      <c r="E20" s="111"/>
+      <c r="F20" s="112" t="s">
         <v>94</v>
       </c>
       <c r="G20" s="7"/>
@@ -5829,7 +5801,7 @@
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
-      <c r="Q20" s="116"/>
+      <c r="Q20" s="111"/>
       <c r="R20" s="1" t="s">
         <v>96</v>
       </c>
@@ -5843,25 +5815,25 @@
       <c r="Z20" s="7"/>
       <c r="AA20" s="7"/>
       <c r="AB20" s="39"/>
-      <c r="AC20" s="123" t="s">
+      <c r="AC20" s="118" t="s">
         <v>84</v>
       </c>
-      <c r="AD20" s="123"/>
-      <c r="AE20" s="123"/>
-      <c r="AF20" s="123"/>
+      <c r="AD20" s="118"/>
+      <c r="AE20" s="118"/>
+      <c r="AF20" s="118"/>
       <c r="AG20" s="17"/>
       <c r="AH20" s="17"/>
       <c r="AI20" s="17"/>
       <c r="AJ20" s="7"/>
-      <c r="AK20" s="116"/>
-      <c r="AL20" s="124" t="s">
+      <c r="AK20" s="111"/>
+      <c r="AL20" s="119" t="s">
         <v>85</v>
       </c>
-      <c r="AM20" s="124"/>
-      <c r="AN20" s="124"/>
-      <c r="AO20" s="124"/>
-      <c r="AP20" s="124"/>
-      <c r="AQ20" s="124"/>
+      <c r="AM20" s="119"/>
+      <c r="AN20" s="119"/>
+      <c r="AO20" s="119"/>
+      <c r="AP20" s="119"/>
+      <c r="AQ20" s="119"/>
       <c r="AR20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5870,7 +5842,7 @@
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
       <c r="E21" s="31"/>
-      <c r="F21" s="131"/>
+      <c r="F21" s="126"/>
       <c r="G21" s="30"/>
       <c r="H21" s="30"/>
       <c r="I21" s="30"/>
@@ -5893,74 +5865,74 @@
       <c r="Z21" s="30"/>
       <c r="AA21" s="30"/>
       <c r="AB21" s="32"/>
-      <c r="AC21" s="86" t="s">
+      <c r="AC21" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="AD21" s="86"/>
-      <c r="AE21" s="86"/>
-      <c r="AF21" s="86"/>
-      <c r="AG21" s="132"/>
-      <c r="AH21" s="132"/>
-      <c r="AI21" s="132"/>
+      <c r="AD21" s="81"/>
+      <c r="AE21" s="81"/>
+      <c r="AF21" s="81"/>
+      <c r="AG21" s="127"/>
+      <c r="AH21" s="127"/>
+      <c r="AI21" s="127"/>
       <c r="AJ21" s="30"/>
       <c r="AK21" s="31"/>
-      <c r="AL21" s="88" t="s">
+      <c r="AL21" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="AM21" s="88"/>
-      <c r="AN21" s="88"/>
-      <c r="AO21" s="88"/>
-      <c r="AP21" s="88"/>
-      <c r="AQ21" s="88"/>
+      <c r="AM21" s="83"/>
+      <c r="AN21" s="83"/>
+      <c r="AO21" s="83"/>
+      <c r="AP21" s="83"/>
+      <c r="AQ21" s="83"/>
       <c r="AR21" s="30"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="133" t="s">
+      <c r="A22" s="128" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="133"/>
-      <c r="C22" s="133"/>
-      <c r="D22" s="133"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="133"/>
-      <c r="J22" s="133"/>
-      <c r="K22" s="133"/>
-      <c r="L22" s="133"/>
-      <c r="M22" s="133"/>
-      <c r="N22" s="133"/>
-      <c r="O22" s="133"/>
-      <c r="P22" s="133"/>
-      <c r="Q22" s="133"/>
-      <c r="R22" s="133"/>
-      <c r="S22" s="133"/>
-      <c r="T22" s="133"/>
-      <c r="U22" s="133"/>
-      <c r="V22" s="133"/>
-      <c r="W22" s="133"/>
-      <c r="X22" s="133"/>
-      <c r="Y22" s="133"/>
-      <c r="Z22" s="133"/>
-      <c r="AA22" s="133"/>
-      <c r="AB22" s="133"/>
-      <c r="AC22" s="133"/>
-      <c r="AD22" s="133"/>
-      <c r="AE22" s="133"/>
-      <c r="AF22" s="133"/>
-      <c r="AG22" s="133"/>
-      <c r="AH22" s="133"/>
-      <c r="AI22" s="133"/>
-      <c r="AJ22" s="133"/>
-      <c r="AK22" s="133"/>
-      <c r="AL22" s="133"/>
-      <c r="AM22" s="133"/>
-      <c r="AN22" s="133"/>
-      <c r="AO22" s="133"/>
-      <c r="AP22" s="133"/>
-      <c r="AQ22" s="133"/>
-      <c r="AR22" s="133"/>
+      <c r="B22" s="128"/>
+      <c r="C22" s="128"/>
+      <c r="D22" s="128"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="128"/>
+      <c r="G22" s="128"/>
+      <c r="H22" s="128"/>
+      <c r="I22" s="128"/>
+      <c r="J22" s="128"/>
+      <c r="K22" s="128"/>
+      <c r="L22" s="128"/>
+      <c r="M22" s="128"/>
+      <c r="N22" s="128"/>
+      <c r="O22" s="128"/>
+      <c r="P22" s="128"/>
+      <c r="Q22" s="128"/>
+      <c r="R22" s="128"/>
+      <c r="S22" s="128"/>
+      <c r="T22" s="128"/>
+      <c r="U22" s="128"/>
+      <c r="V22" s="128"/>
+      <c r="W22" s="128"/>
+      <c r="X22" s="128"/>
+      <c r="Y22" s="128"/>
+      <c r="Z22" s="128"/>
+      <c r="AA22" s="128"/>
+      <c r="AB22" s="128"/>
+      <c r="AC22" s="128"/>
+      <c r="AD22" s="128"/>
+      <c r="AE22" s="128"/>
+      <c r="AF22" s="128"/>
+      <c r="AG22" s="128"/>
+      <c r="AH22" s="128"/>
+      <c r="AI22" s="128"/>
+      <c r="AJ22" s="128"/>
+      <c r="AK22" s="128"/>
+      <c r="AL22" s="128"/>
+      <c r="AM22" s="128"/>
+      <c r="AN22" s="128"/>
+      <c r="AO22" s="128"/>
+      <c r="AP22" s="128"/>
+      <c r="AQ22" s="128"/>
+      <c r="AR22" s="128"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
